--- a/_comparisonFigure/comparison_table.xlsx
+++ b/_comparisonFigure/comparison_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru48fak\Documents\GitHub\excess-mortality-world\_dataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru48fak\Documents\GitHub\excess-mortality-world\_comparisonFigure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,9 +83,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>Rep. Korea</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>De Nicola</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,22 +460,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>1.0996666968518773E-2</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.11375105339366716</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>5.1493284499618701E-2</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>7.8508382082394523E-2</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.10643040535283592</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>0.1622900200027188</v>

--- a/_comparisonFigure/comparison_table.xlsx
+++ b/_comparisonFigure/comparison_table.xlsx
@@ -110,13 +110,13 @@
     <t>WHO</t>
   </si>
   <si>
-    <t>Levitt</t>
-  </si>
-  <si>
-    <t>De Nicola</t>
-  </si>
-  <si>
     <t>South Korea</t>
+  </si>
+  <si>
+    <t>Levitt et al.</t>
+  </si>
+  <si>
+    <t>De Nicola &amp; Kauermann</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -472,10 +472,10 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>1.0996666968518773E-2</v>

--- a/_comparisonFigure/comparison_table.xlsx
+++ b/_comparisonFigure/comparison_table.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>3.5718376416610215E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">

--- a/_comparisonFigure/comparison_table.xlsx
+++ b/_comparisonFigure/comparison_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru48fak\Documents\GitHub\excess-mortality-world\_comparisonFigure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomo/Documents/GitHub/excess-mortality-world/_comparisonFigure/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0DC5A-94A7-AC46-AD9B-36B4A4451636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14508"/>
+    <workbookView xWindow="-35200" yWindow="4940" windowWidth="30720" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -117,12 +118,15 @@
   </si>
   <si>
     <t>De Nicola &amp; Kauermann</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -155,9 +159,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -438,24 +441,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,555 +481,578 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>-3.2475160227345652E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>-2.6506918305677783E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-5.0502654877133457E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>-3.9773129966441695E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>-4.03463198631685E-2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>8.6349130907115698E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>9.5492712294043089E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.10354426941879413</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>6.7549536628157256E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>7.3595645482527616E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>8.856017219675455E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.10037936560447161</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.14091949973577594</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>7.6982481196127092E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>5.9968121259510995E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.2047249248128911E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3.8531143334936888E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>7.1505476632272039E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3.6029659030194443E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3.5718376416610215E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.15146005112879415</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.1727037050372664</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.20613545529831132</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.15461154601787447</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.10986389659021352</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.17466072112813646</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.18502751706394824</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.20674641772882113</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.1559589964516109</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.14349717250062108</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>7.9151097972240767E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2.1265897406999627E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>9.0161163079003723E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>3.2217594292959825E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>-2.7369114600039879E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2.2852924006730536E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>3.8365784142028091E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>7.5375158820095461E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>2.4526972073985718E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>-6.1467669379485597E-3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>6.2229849034849821E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>7.6803510296591354E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.1222357952148235</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>6.4548382907886198E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>4.5556097949514249E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>4.4109176270633627E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>5.6475265577178094E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.10123875339685941</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>6.1058509925871834E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>2.7299553502187605E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.13223955333008375</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.15403760653461543</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.19866767108314501</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.13477167201345505</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.10270527761776045</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1.0150223304912708E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>-7.105156313438896E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>-6.3743402354851805E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>-2.1584926455456882E-3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>-2.8826634185952091E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.12408195134647136</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.14112939301022359</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.19150274943233114</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.11889479786778376</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>8.5540359389291082E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.19218901948543096</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.20885308489308826</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.24011621624866436</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.20715674184562644</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.135461563396684</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>6.1882531755509717E-3</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1">
+        <v>6.1882531755509699E-3</v>
+      </c>
+      <c r="C16" s="1">
         <v>3.4089675388122895E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.11616545434806209</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>7.5433484787116034E-3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>1.183367712517642E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.7549077170000003E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.10144263488999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.13979585932999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.9755086560000003E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.5208610900000003E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.3551786939999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="1">
         <v>-3.8311384818409261E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="1">
         <v>-3.5273417095098014E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="1">
         <v>-1.1986913369807275E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="1">
         <v>-3.6801265402820298E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="1">
         <v>-5.6607923459709122E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="1">
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="1">
         <v>1.2650664705679585E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="1">
         <v>2.2819455136675437E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="1">
         <v>8.5256977398857885E-3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="1">
         <v>-1.1623481026754726E-3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="1">
         <v>-3.4401535085199525E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="1">
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="1">
         <v>8.6971700652803019E-2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="1">
         <v>0.10317820849316912</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="1">
         <v>0.16993068174170536</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="1">
         <v>8.6005244863903055E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="1">
         <v>6.8502254525876577E-2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="1">
         <v>1.0996666968518773E-2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="1">
         <v>1.0175823983220918E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="1">
         <v>6.7624608931122219E-3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="1">
         <v>9.1841186636701967E-3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="1">
         <v>-4.4234965574254159E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="1">
         <v>-9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="1">
         <v>0.11375105339366716</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="1">
         <v>0.1277712675073199</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="1">
         <v>0.1789250580125844</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="1">
         <v>0.11479587081317848</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="1">
         <v>7.5899567818671604E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="1">
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="1">
         <v>5.1493284499618701E-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="1">
         <v>6.2128105497424299E-2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="1">
         <v>9.3897687834283552E-2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="1">
         <v>6.9716166155509199E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="1">
         <v>-1.9038923444851968E-3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="1">
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="1">
         <v>7.8508382082394523E-2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="1">
         <v>9.3288132790375594E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="1">
         <v>0.10680006339100537</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="1">
         <v>5.6826033405910845E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="1">
         <v>3.886144242098518E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="1">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="1">
         <v>0.10643040535283592</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="1">
         <v>0.11583988173967168</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="1">
         <v>0.13148681241733448</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="1">
         <v>0.11584591452884935</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="1">
         <v>6.7927332140356331E-2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="1">
         <v>0.1622900200027188</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="1">
         <v>0.17185197819205481</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="1">
         <v>0.19082374218868078</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="1">
         <v>0.15746478775942427</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="1">
         <v>0.14713608181441293</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="1">
         <v>0.156</v>
       </c>
     </row>

--- a/_comparisonFigure/comparison_table.xlsx
+++ b/_comparisonFigure/comparison_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomo/Documents/GitHub/excess-mortality-world/_comparisonFigure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0DC5A-94A7-AC46-AD9B-36B4A4451636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E17E6-5AA0-0D42-8179-4BEF0D3743BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35200" yWindow="4940" windowWidth="30720" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="5540" windowWidth="30720" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
         <v>-4.03463198631685E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>-6.8000000000000005E-2</v>
+        <v>-7.1499999999999994E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
